--- a/data/trans_orig/P78C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78C1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB85F182-22B6-42D2-BEBE-6C62ED2CFC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A91E050-79B6-45F2-B137-B02320AA0F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E2DC405-1D53-4967-9511-8FDBB2897892}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8E0D0804-6336-4AD1-B629-8B8C5C236960}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="82">
   <si>
     <t>Población según si tiene resuelto el retraso en los pagos de la hipoteca en 2023 (Tasa respuesta: 0,73%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -95,7 +95,7 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -116,40 +116,40 @@
     <t>18,74%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>45/54</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>45-54</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -158,124 +158,127 @@
     <t>11,15%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -690,8 +693,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9491CBEE-799A-4E9C-8472-9A27AC5347D3}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D4CF7C-4A97-47B8-83FA-9041597B2ACD}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -811,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -839,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -909,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -937,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -960,7 +963,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>6291</v>
+        <v>5917</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -975,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>4687</v>
+        <v>3807</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
@@ -990,7 +993,7 @@
         <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>10978</v>
+        <v>9724</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
@@ -1062,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>6291</v>
+        <v>5917</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1077,7 +1080,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>4687</v>
+        <v>3807</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1092,7 +1095,7 @@
         <v>9</v>
       </c>
       <c r="N9" s="7">
-        <v>10978</v>
+        <v>9724</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1115,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>9755</v>
+        <v>8453</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1130,7 +1133,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>8468</v>
+        <v>7399</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>28</v>
@@ -1145,7 +1148,7 @@
         <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>18224</v>
+        <v>15853</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>30</v>
@@ -1181,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>863</v>
+        <v>838</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>33</v>
@@ -1196,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>863</v>
+        <v>838</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>35</v>
@@ -1217,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>9755</v>
+        <v>8453</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1232,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="I12" s="7">
-        <v>9331</v>
+        <v>8237</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1247,7 +1250,7 @@
         <v>19</v>
       </c>
       <c r="N12" s="7">
-        <v>19087</v>
+        <v>16691</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1270,7 +1273,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>9418</v>
+        <v>8050</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
@@ -1285,7 +1288,7 @@
         <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>5994</v>
+        <v>5295</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
@@ -1300,7 +1303,7 @@
         <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>15412</v>
+        <v>13344</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
@@ -1372,7 +1375,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="7">
-        <v>9418</v>
+        <v>8050</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1387,7 +1390,7 @@
         <v>8</v>
       </c>
       <c r="I15" s="7">
-        <v>5994</v>
+        <v>5295</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1402,7 +1405,7 @@
         <v>16</v>
       </c>
       <c r="N15" s="7">
-        <v>15412</v>
+        <v>13344</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1425,7 +1428,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>3818</v>
+        <v>3447</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>41</v>
@@ -1440,7 +1443,7 @@
         <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>3643</v>
+        <v>3221</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>43</v>
@@ -1455,7 +1458,7 @@
         <v>10</v>
       </c>
       <c r="N16" s="7">
-        <v>7460</v>
+        <v>6669</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>46</v>
@@ -1476,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>2830</v>
+        <v>2601</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>49</v>
@@ -1491,7 +1494,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>2035</v>
+        <v>1803</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>51</v>
@@ -1506,7 +1509,7 @@
         <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>4866</v>
+        <v>4403</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>54</v>
@@ -1527,7 +1530,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>6648</v>
+        <v>6048</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1542,7 +1545,7 @@
         <v>9</v>
       </c>
       <c r="I18" s="7">
-        <v>5678</v>
+        <v>5024</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1557,7 +1560,7 @@
         <v>15</v>
       </c>
       <c r="N18" s="7">
-        <v>12326</v>
+        <v>11072</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -1580,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>1435</v>
+        <v>1350</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>58</v>
@@ -1595,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>644</v>
+        <v>550</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
@@ -1610,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>2079</v>
+        <v>1901</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>59</v>
@@ -1631,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>846</v>
+        <v>808</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>61</v>
@@ -1661,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>847</v>
+        <v>808</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>62</v>
@@ -1682,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="7">
-        <v>2281</v>
+        <v>2158</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -1697,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>644</v>
+        <v>550</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -1712,7 +1715,7 @@
         <v>4</v>
       </c>
       <c r="N21" s="7">
-        <v>2926</v>
+        <v>2709</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -1726,55 +1729,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>28</v>
-      </c>
-      <c r="D22" s="7">
-        <v>30876</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="H22" s="7">
-        <v>29</v>
-      </c>
-      <c r="I22" s="7">
-        <v>23437</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="M22" s="7">
-        <v>57</v>
-      </c>
-      <c r="N22" s="7">
-        <v>54313</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1783,49 +1780,43 @@
         <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
-      </c>
-      <c r="D23" s="7">
-        <v>3677</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2898</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="M23" s="7">
-        <v>7</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,63 +1825,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>28</v>
+      </c>
+      <c r="D25" s="7">
+        <v>27378</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="7">
+        <v>29</v>
+      </c>
+      <c r="I25" s="7">
+        <v>20272</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M25" s="7">
+        <v>57</v>
+      </c>
+      <c r="N25" s="7">
+        <v>47651</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3409</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2641</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6050</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>31</v>
       </c>
-      <c r="D24" s="7">
-        <v>34553</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>30787</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>33</v>
       </c>
-      <c r="I24" s="7">
-        <v>26335</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>22913</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>64</v>
       </c>
-      <c r="N24" s="7">
-        <v>60888</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>80</v>
+      <c r="N27" s="7">
+        <v>53701</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
